--- a/config_vivo/提审配置/shoping_config_vivo.xlsx
+++ b/config_vivo/提审配置/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -6147,7 +6147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
@@ -6331,8 +6331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32578,7 +32578,7 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33179,7 +33179,7 @@
         <v>10</v>
       </c>
       <c r="M9" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="45">
         <v>2</v>
@@ -33241,7 +33241,7 @@
         <v>10</v>
       </c>
       <c r="M10" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="45">
         <v>1</v>
@@ -33561,7 +33561,7 @@
         <v>10</v>
       </c>
       <c r="M15" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="45">
         <v>14</v>
@@ -34026,7 +34026,7 @@
         <v>10</v>
       </c>
       <c r="M22" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="45">
         <v>2</v>
@@ -34086,7 +34086,7 @@
         <v>10</v>
       </c>
       <c r="M23" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="45">
         <v>1</v>
@@ -34146,7 +34146,7 @@
         <v>10</v>
       </c>
       <c r="M24" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="45">
         <v>14</v>
